--- a/Investment/THS/大决策app/玩股成金/成交明细数据.xlsx
+++ b/Investment/THS/大决策app/玩股成金/成交明细数据.xlsx
@@ -538,11 +538,11 @@
         <v>500</v>
       </c>
       <c r="H2" t="n">
-        <v>32.95</v>
+        <v>32.86</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-07-17 09:30:50</t>
+          <t>2025-07-21 09:30:50</t>
         </is>
       </c>
       <c r="J2" t="inlineStr"/>
@@ -567,7 +567,7 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>sh600196</t>
+          <t>sz000915</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
@@ -577,14 +577,14 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="H3" t="n">
-        <v>25.39</v>
+        <v>32.95</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-07-16 09:30:50</t>
+          <t>2025-07-17 09:30:50</t>
         </is>
       </c>
       <c r="J3" t="inlineStr"/>
@@ -651,7 +651,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>sz300759</t>
+          <t>sh600196</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -661,14 +661,14 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H5" t="n">
-        <v>26.42</v>
+        <v>25.39</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-07-15 09:30:50</t>
+          <t>2025-07-16 09:30:50</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
@@ -693,7 +693,7 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>sh600196</t>
+          <t>sz300759</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
@@ -703,14 +703,14 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H6" t="n">
-        <v>25.61</v>
+        <v>26.42</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-07-14 09:30:50</t>
+          <t>2025-07-15 09:30:50</t>
         </is>
       </c>
       <c r="J6" t="inlineStr"/>
@@ -735,7 +735,7 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>sz002365</t>
+          <t>sh600196</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -745,14 +745,14 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H7" t="n">
-        <v>26.04</v>
+        <v>25.61</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-07-11 09:30:50</t>
+          <t>2025-07-14 09:30:50</t>
         </is>
       </c>
       <c r="J7" t="inlineStr"/>
@@ -819,7 +819,7 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>sz300759</t>
+          <t>sz002365</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -832,11 +832,11 @@
         <v>600</v>
       </c>
       <c r="H9" t="n">
-        <v>25</v>
+        <v>26.04</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-10 09:30:50</t>
+          <t>2025-07-11 09:30:50</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
@@ -945,7 +945,7 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>sz300181</t>
+          <t>sz300759</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -955,14 +955,14 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="H12" t="n">
-        <v>18.67</v>
+        <v>25</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-09 09:30:50</t>
+          <t>2025-07-10 09:30:50</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
@@ -1029,7 +1029,7 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>sz300255</t>
+          <t>sz300181</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1039,14 +1039,14 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="H14" t="n">
-        <v>46.6</v>
+        <v>18.67</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-08 09:30:50</t>
+          <t>2025-07-09 09:30:50</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1113,7 +1113,7 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>sz300181</t>
+          <t>sz300255</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
@@ -1123,14 +1123,14 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>900</v>
+        <v>300</v>
       </c>
       <c r="H16" t="n">
-        <v>18.8</v>
+        <v>46.6</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-04 09:30:50</t>
+          <t>2025-07-08 09:30:50</t>
         </is>
       </c>
       <c r="J16" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>sz300255</t>
+          <t>sz300181</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1165,10 +1165,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="H17" t="n">
-        <v>46.55</v>
+        <v>18.8</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>sz000661</t>
+          <t>sz300255</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1207,14 +1207,14 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>46.55</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-03 09:30:50</t>
+          <t>2025-07-04 09:30:50</t>
         </is>
       </c>
       <c r="J18" t="inlineStr"/>
@@ -1239,7 +1239,7 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>sz002880</t>
+          <t>sz000661</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="H19" t="n">
-        <v>28.95</v>
+        <v>100</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sz000661</t>
+          <t>sz002880</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1291,14 +1291,14 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
+        <v>28.95</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-02 09:30:50</t>
+          <t>2025-07-03 09:30:50</t>
         </is>
       </c>
       <c r="J20" t="inlineStr"/>
@@ -1323,7 +1323,7 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>sz300436</t>
+          <t>sz000661</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1333,14 +1333,14 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H21" t="n">
-        <v>35.73</v>
+        <v>100</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-01 09:30:50</t>
+          <t>2025-07-02 09:30:50</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
